--- a/biology/Zoologie/Cephalotes_foliaceus/Cephalotes_foliaceus.xlsx
+++ b/biology/Zoologie/Cephalotes_foliaceus/Cephalotes_foliaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes foliaceus est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes foliaceus est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est native d'Amérique du Sud, du Nord de la Colombie jusqu'en Bolivie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est native d'Amérique du Sud, du Nord de la Colombie jusqu'en Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste italien Carlo Emery en 1906.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
